--- a/data/Chiguayante.xlsx
+++ b/data/Chiguayante.xlsx
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización del Sistema de Tratamiento de Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Emporio Aleman S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5901861&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Tratamiento de Residuos Industriales Líquidos</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Emporio Aleman S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5901861&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">

--- a/data/Chiguayante.xlsx
+++ b/data/Chiguayante.xlsx
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Tratamiento de Residuos Industriales Líquidos</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Emporio Aleman S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5901861&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización del Sistema de Tratamiento de Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Emporio Aleman S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5901861&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">

--- a/data/Chiguayante.xlsx
+++ b/data/Chiguayante.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Condominio Enrique Tirapegui</t>
+          <t>Condominios Fuentes de Porvenir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Inmobiliaria Fuentes de Porvenir SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17762</v>
+        <v>37000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/06/2021</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152083243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160169487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción de Áridos en Río Biobío para Proyecto Ampliación Conexión Vial Concepción-Chiguayante. Etapa 2</t>
+          <t>Condominio Enrique Tirapegui</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Echeverria izquierdo Ingenieria y Construcción S.A.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>17762</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/12/2020</t>
+          <t>14/06/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149466778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152083243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,40 +520,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Extracción de Áridos en Río Biobío para Proyecto Ampliación Conexión Vial Concepción-Chiguayante. Etapa 2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>Echeverria izquierdo Ingenieria y Construcción S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>324020</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>30/12/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149466778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Continuidad constructiva y Ampliación Condominios Los Arrayanes</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inmobiliaria Socovesa Sur S.A.</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>14700</v>
+        <v>324020</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13/09/2019</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144024159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación de Cauce Quebrada Sin Nombre, sector Lonco</t>
+          <t>Continuidad constructiva y Ampliación Condominios Los Arrayanes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Arrayanes Limitada</t>
+          <t>Inmobiliaria Socovesa Sur S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>14700</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>05/10/2018</t>
+          <t>13/09/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141489680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144024159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>05/10/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141489680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Modificación de Cauce Quebrada Sin Nombre, sector Lonco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Inmobiliaria Los Arrayanes Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9903</v>
+        <v>28</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Proyecto de explotación Canteras Lonco</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Canteras Lonco S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>22753</v>
+        <v>9903</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/01/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132084984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Condominio Fuentes de Chiguayante</t>
+          <t>Proyecto de explotación Canteras Lonco</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fuentes de Chiguayante S p A</t>
+          <t>Canteras Lonco S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>13000</v>
+        <v>22753</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13/12/2016</t>
+          <t>24/01/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131986990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132084984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>Condominio Fuentes de Chiguayante</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Inmobiliaria Fuentes de Chiguayante S p A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>13/12/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131986990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Condominio Fuentes de Chiguayante</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fuentes de Chiguayante S p A</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>16/09/2015</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Extracción de Áridos en río Biobío para construcción de Interconexión Vial Costanera Concepción - Chiguayante, Etapa 1</t>
+          <t>Condominio Fuentes de Chiguayante</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dragados S.A. Agencia en Chile</t>
+          <t>Inmobiliaria Fuentes de Chiguayante S p A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1300</v>
+        <v>13000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14/09/2015</t>
+          <t>16/09/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130750858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Extracción de arenas desde el río Bíobío para etapa 1 de proyecto, Mejoramiento interconexión vial costanera Concepción Chiguayante</t>
+          <t>Extracción de Áridos en río Biobío para construcción de Interconexión Vial Costanera Concepción - Chiguayante, Etapa 1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOCIEDAD ARIDOS EL BOLDAL S.A Empresa de Extraccion y Comercializacion de Aridos</t>
+          <t>Dragados S.A. Agencia en Chile</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14/07/2015</t>
+          <t>14/09/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130610531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130750858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/06/2015</t>
+          <t>14/07/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130537819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130610531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Las Araucarias</t>
+          <t>Extracción de arenas desde el río Bíobío para etapa 1 de proyecto, Mejoramiento interconexión vial costanera Concepción Chiguayante</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA</t>
+          <t>SOCIEDAD ARIDOS EL BOLDAL S.A Empresa de Extraccion y Comercializacion de Aridos</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>31000</v>
+        <v>700</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11/09/2014</t>
+          <t>08/06/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129781888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130537819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Condominio Fuentes de Chiguayante</t>
+          <t>Parque Las Araucarias</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fuentes de Chiguayante S p A</t>
+          <t>Inmobiliaria Viviendas 2000 SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>13000</v>
+        <v>31000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>17/03/2014</t>
+          <t>11/09/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129273780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129781888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Extracción de Maicillo desde pozo lastrero, Los Perros. Comuna de Hualqui</t>
+          <t>Condominio Fuentes de Chiguayante</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cesar Octavio Vicencio Baeza</t>
+          <t>Inmobiliaria Fuentes de Chiguayante S p A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>120</v>
+        <v>13000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/09/2013</t>
+          <t>17/03/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128555275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129273780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mejoramiento Interconexión Vial Costanera Concepción Chiguayante, Provincia de Concepción, Región de Biobío</t>
+          <t>Extracción de Maicillo desde pozo lastrero, Los Perros. Comuna de Hualqui</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Cesar Octavio Vicencio Baeza</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>85852</v>
+        <v>120</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/07/2013</t>
+          <t>10/09/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8338799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128555275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Mejoramiento Interconexión Vial Costanera Concepción Chiguayante, Provincia de Concepción, Región de Biobío</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>85852</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>10/07/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8338799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Reposición Ruta O-60, Sector Chiguayante - Hualqui, Provincia de Concepción, VIII Región del Biobío</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>20693</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6222443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Tratamiento de Residuos Industriales Líquidos</t>
+          <t>Reposición Ruta O-60, Sector Chiguayante - Hualqui, Provincia de Concepción, VIII Región del Biobío</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,11 +1591,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Emporio Aleman S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>60</v>
+        <v>20693</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6249803&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6222443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1643,21 +1643,21 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>11/11/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5901861&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6249803&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Regularización del Sistema de Tratamiento de Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Emporio Aleman S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5901861&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Construcción Costanera Ribera Norte del Río Biobío: Concepción - Chiguayante</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>41500</v>
+        <v>200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>02/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5556861&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"DESVIO DE MANIOBRA DE LA MOCHITA" Empresas de Ferrocarriles del Estado</t>
+          <t>Construcción Costanera Ribera Norte del Río Biobío: Concepción - Chiguayante</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Empresa De Los Ferrocarriles del Estado</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5500</v>
+        <v>41500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>22/02/2011</t>
+          <t>02/05/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5369594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5556861&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>inmobiliaria, inversiones y transportes publicos chiguayante S.A</t>
+          <t>"DESVIO DE MANIOBRA DE LA MOCHITA" Empresas de Ferrocarriles del Estado</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inmobiliaria, inversiones y transportes publicos de pasajeros Chiguayante S.A</t>
+          <t>Empresa De Los Ferrocarriles del Estado</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1000</v>
+        <v>5500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/07/2010</t>
+          <t>22/02/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4744818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5369594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>inmobiliaria, inversiones y transportes publicos chiguayante S.A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Inmobiliaria, inversiones y transportes publicos de pasajeros Chiguayante S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>12/07/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4744818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Terminal de Buses de Locomocion Colectiva Urbana Chiguayante S.A.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inmobiliaria, inversiones y transportes públicos de pasajeros Chiguayante S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>03/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>¿Proyecto Terminal de buses de locomoción colectiva urbana Chiguayante S.A¿</t>
+          <t>Terminal de Buses de Locomocion Colectiva Urbana Chiguayante S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12/05/2010</t>
+          <t>03/06/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>¿Proyecto Terminal de buses de locomoción colectiva urbana Chiguayante S.A¿</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria, inversiones y transportes públicos de pasajeros Chiguayante S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>12/05/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación PRMC (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Modificación PRMC (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>20/06/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>500</v>
+        <v>142</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Caselli e Hija Ltda.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>07/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1365100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Caselli e Hija Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>07/04/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1365100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>41</v>
+        <v>4000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4000</v>
+        <v>41</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Proyecto Línea 66 kV, Chiguayante-Quilacoya (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Eduardo Castillo Aguirre</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>31/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1000348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Chiguayante-Quilacoya Linea de Transmision Chiguayante-Quilacoya (e-seia)</t>
+          <t>Proyecto Línea 66 kV, Chiguayante-Quilacoya (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>12/08/2005</t>
+          <t>31/08/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=971680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1000348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Línea de Transmisión Chiguayante-Quilacoya Linea de Transmision Chiguayante-Quilacoya (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Eduardo Castillo Aguirre</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>12/08/2005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=971680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Terminal de Locomoción Colectiva Buses Vía Futuro. (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,12 +4514,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte Vía Futuro S.A</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=362535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Terminal de Locomoción Colectiva Buses Vía Futuro. (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transporte Vía Futuro S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>10/06/2004</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=362535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles de Machasa S.A.</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Santista Textil Chile S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Chiguayante</t>
+          <t>Planta de Tratamiento de Riles de Machasa S.A.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Chiguayante</t>
+          <t>Santista Textil Chile S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>04/05/2001</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Plan Regulador Metropolitano de Concepción</t>
+          <t>Plan Regulador Comunal de Chiguayante</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (VIII Región)</t>
+          <t>I. Municipalidad de Chiguayante</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>05/09/2000</t>
+          <t>04/05/2001</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mejoramiento del Terminal de Buses de Locomoción Colectiva Urbana Sotrapel</t>
+          <t>Plan Regulador Metropolitano de Concepción</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad de Tranportes Penquista Limitada - SOTRAPEL</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (VIII Región)</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20/04/2000</t>
+          <t>05/09/2000</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Mejoramiento del Terminal de Buses de Locomoción Colectiva Urbana Sotrapel</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Sociedad de Tranportes Penquista Limitada - SOTRAPEL</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>20/04/2000</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,40 +4888,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Defensas Fluviales y Carretera en la Ribera Norte del Bio-Bio Sector Chiguayante- Puente Viejo</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>140000</v>
+        <v>110</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>29/11/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Explotación Canteras Maquimávida</t>
+          <t>Defensas Fluviales y Carretera en la Ribera Norte del Bio-Bio Sector Chiguayante- Puente Viejo</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Cantera Maquimávida Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>20/05/1999</t>
+          <t>29/11/1999</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Chiguayante</t>
+          <t>Explotación Canteras Maquimávida</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Chiguayante</t>
+          <t>Cantera Maquimávida Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5007,20 +5007,68 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
+          <t>20/05/1999</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1963&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Chiguayante</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Modificación Plan Regulador de Chiguayante</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>I. Municipalidad de Chiguayante</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>23/02/1999</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1716&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>Chiguayante</t>
         </is>

--- a/data/Chiguayante.xlsx
+++ b/data/Chiguayante.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chiguayante.xlsx
+++ b/data/Chiguayante.xlsx
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización del Sistema de Tratamiento de Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Emporio Aleman S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5901861&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Tratamiento de Residuos Industriales Líquidos</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,16 +1730,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Emporio Aleman S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5901861&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">

--- a/data/Chiguayante.xlsx
+++ b/data/Chiguayante.xlsx
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Tratamiento de Residuos Industriales Líquidos</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Emporio Aleman S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5901861&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización del Sistema de Tratamiento de Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,16 +1730,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Emporio Aleman S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5901861&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
